--- a/data_20170128/Supplementary_Data_Sets/Supplementary_Data_Set_7.xlsx
+++ b/data_20170128/Supplementary_Data_Sets/Supplementary_Data_Set_7.xlsx
@@ -384,13 +384,13 @@
     <t>DBVPG6044,DBVPG6765,N44,S288C,SK1,UFRJ50816,UWOPS03-461.4,Y12,YPS128,YPS138</t>
   </si>
   <si>
-    <t>previously described by Ed Louise in S288C</t>
-  </si>
-  <si>
-    <t>previously described by Ed Louise in S288C but didn't pass our filtering criteria for S288C</t>
-  </si>
-  <si>
     <t>Supplementary Data Set 7: Strain-sharing patterns of duplicated subtelomere pairs.</t>
+  </si>
+  <si>
+    <t>previously described by Ed Louis in S288C</t>
+  </si>
+  <si>
+    <t>previously described by Ed Louis in S288C but didn't pass our filtering criteria for S288C</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4"/>
       <c r="D1" s="8"/>
@@ -936,7 +936,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -972,7 +972,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1168,7 +1168,7 @@
         <v>112</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>113</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1287,7 +1287,7 @@
         <v>114</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1367,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>116</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>117</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>118</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1793,7 +1793,7 @@
         <v>119</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1807,7 +1807,7 @@
         <v>120</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4">
